--- a/data_files/Vibrio_para_2018.xlsx
+++ b/data_files/Vibrio_para_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokey\Documents\NSS\Projects\capstone_project\Foodborne_Illness\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB53A860-80CD-408F-B454-B08E7F92A710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E1ED46-A5B1-4CF6-8D4D-0952CF0A3AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="59">
   <si>
     <t>Cost component</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>ERS has developed similar Excel files for 15 major foodborne pathogens. The U.S. Centers for Disease Control and Prevention estimates that these 15 pathogens cause 95 percent or more of the foodborne illnesses, hospitalizations, and deaths each year in the United States for which a pathogen cause can be identified.</t>
+  </si>
+  <si>
+    <t>Total cases</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1470,9 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
@@ -1547,7 +1552,9 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="52"/>
+      <c r="E5" s="50" t="s">
+        <v>58</v>
+      </c>
       <c r="F5" s="54" t="s">
         <v>33</v>
       </c>
